--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>0.32843</v>
       </c>
       <c r="I2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>1.122736677772222</v>
+        <v>1.497313282305555</v>
       </c>
       <c r="R2">
-        <v>10.10463009995</v>
+        <v>13.47581954075</v>
       </c>
       <c r="S2">
-        <v>0.05355355484032912</v>
+        <v>0.05067349888702092</v>
       </c>
       <c r="T2">
-        <v>0.05355355484032912</v>
+        <v>0.05067349888702091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.32843</v>
       </c>
       <c r="I3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>8.172367042759999</v>
+        <v>8.172367042760001</v>
       </c>
       <c r="R3">
-        <v>73.55130338484</v>
+        <v>73.55130338484001</v>
       </c>
       <c r="S3">
-        <v>0.3898147404146149</v>
+        <v>0.2765770110634174</v>
       </c>
       <c r="T3">
-        <v>0.3898147404146148</v>
+        <v>0.2765770110634173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.32843</v>
       </c>
       <c r="I4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.09522543210666667</v>
+        <v>0.1783742376677778</v>
       </c>
       <c r="R4">
-        <v>0.8570288889600001</v>
+        <v>1.60536813901</v>
       </c>
       <c r="S4">
-        <v>0.004542169594599292</v>
+        <v>0.00603671044713727</v>
       </c>
       <c r="T4">
-        <v>0.004542169594599291</v>
+        <v>0.006036710447137268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.32843</v>
       </c>
       <c r="I5">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J5">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>1.773749091098889</v>
+        <v>2.099173518692222</v>
       </c>
       <c r="R5">
-        <v>15.96374181989</v>
+        <v>18.89256166823</v>
       </c>
       <c r="S5">
-        <v>0.08460627598951542</v>
+        <v>0.07104222491055601</v>
       </c>
       <c r="T5">
-        <v>0.08460627598951541</v>
+        <v>0.07104222491055599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.32843</v>
       </c>
       <c r="I6">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J6">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.0672616611711111</v>
+        <v>0.08771423800666667</v>
       </c>
       <c r="R6">
-        <v>0.6053549505399999</v>
+        <v>0.78942814206</v>
       </c>
       <c r="S6">
-        <v>0.003208322246429291</v>
+        <v>0.002968508591042918</v>
       </c>
       <c r="T6">
-        <v>0.003208322246429289</v>
+        <v>0.002968508591042917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H7">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>0.2371923526694445</v>
+        <v>1.300637902472222</v>
       </c>
       <c r="R7">
-        <v>2.134731174025</v>
+        <v>11.70574112225</v>
       </c>
       <c r="S7">
-        <v>0.01131386719421562</v>
+        <v>0.04401742379648083</v>
       </c>
       <c r="T7">
-        <v>0.01131386719421562</v>
+        <v>0.04401742379648083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H8">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I8">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J8">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>1.72651611382</v>
+        <v>7.098908728280001</v>
       </c>
       <c r="R8">
-        <v>15.53864502438</v>
+        <v>63.89017855452</v>
       </c>
       <c r="S8">
-        <v>0.08235330439870918</v>
+        <v>0.2402480147559064</v>
       </c>
       <c r="T8">
-        <v>0.08235330439870915</v>
+        <v>0.2402480147559063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H9">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I9">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J9">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>0.02011757941333334</v>
+        <v>0.1549443907811111</v>
       </c>
       <c r="R9">
-        <v>0.18105821472</v>
+        <v>1.39449951703</v>
       </c>
       <c r="S9">
-        <v>0.000959590894014773</v>
+        <v>0.005243775305129835</v>
       </c>
       <c r="T9">
-        <v>0.0009595908940147728</v>
+        <v>0.005243775305129834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H10">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I10">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J10">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>0.3747269758727778</v>
+        <v>1.823442478298889</v>
       </c>
       <c r="R10">
-        <v>3.372542782855</v>
+        <v>16.41098230469</v>
       </c>
       <c r="S10">
-        <v>0.01787414809710601</v>
+        <v>0.06171067303453558</v>
       </c>
       <c r="T10">
-        <v>0.01787414809710601</v>
+        <v>0.06171067303453558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H11">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I11">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J11">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>0.01420987839222222</v>
+        <v>0.07619278068666666</v>
       </c>
       <c r="R11">
-        <v>0.12788890553</v>
+        <v>0.68573502618</v>
       </c>
       <c r="S11">
-        <v>0.0006777987366211865</v>
+        <v>0.002578588484421746</v>
       </c>
       <c r="T11">
-        <v>0.0006777987366211863</v>
+        <v>0.002578588484421746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H12">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I12">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J12">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>0.7358039399477779</v>
+        <v>0.8782599721194444</v>
       </c>
       <c r="R12">
-        <v>6.622235459530001</v>
+        <v>7.904339749075</v>
       </c>
       <c r="S12">
-        <v>0.03509720260311824</v>
+        <v>0.02972290852264522</v>
       </c>
       <c r="T12">
-        <v>0.03509720260311822</v>
+        <v>0.02972290852264522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H13">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I13">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J13">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>5.355895097944001</v>
+        <v>4.793561197876</v>
       </c>
       <c r="R13">
-        <v>48.203055881496</v>
+        <v>43.14205078088401</v>
       </c>
       <c r="S13">
-        <v>0.2554714988165592</v>
+        <v>0.1622282530289252</v>
       </c>
       <c r="T13">
-        <v>0.2554714988165591</v>
+        <v>0.1622282530289252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H14">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I14">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J14">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.06240755246933335</v>
+        <v>0.1046267036112222</v>
       </c>
       <c r="R14">
-        <v>0.5616679722240001</v>
+        <v>0.941640332501</v>
       </c>
       <c r="S14">
-        <v>0.00297678551862114</v>
+        <v>0.003540876322710669</v>
       </c>
       <c r="T14">
-        <v>0.002976785518621139</v>
+        <v>0.003540876322710669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H15">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I15">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J15">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>1.162455627885111</v>
+        <v>1.231285461624778</v>
       </c>
       <c r="R15">
-        <v>10.462100650966</v>
+        <v>11.081569154623</v>
       </c>
       <c r="S15">
-        <v>0.0554481139254492</v>
+        <v>0.0416703325927724</v>
       </c>
       <c r="T15">
-        <v>0.05544811392544918</v>
+        <v>0.0416703325927724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H16">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I16">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J16">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.04408103545288889</v>
+        <v>0.05144942286733333</v>
       </c>
       <c r="R16">
-        <v>0.396729319076</v>
+        <v>0.463044805806</v>
       </c>
       <c r="S16">
-        <v>0.002102626730097535</v>
+        <v>0.001741200257297691</v>
       </c>
       <c r="T16">
-        <v>0.002102626730097534</v>
+        <v>0.001741200257297691</v>
       </c>
     </row>
   </sheetData>
